--- a/base-llm/open-source/executability.xlsx
+++ b/base-llm/open-source/executability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\open-source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189DAC01-CA3A-4BC2-AEAC-8C8B8E1C375A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7997935-DBBC-40EC-AB9D-A147BB21B73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23028" windowHeight="12348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1204,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244A4901-DEA4-48E6-8612-7D3F41750B47}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1300,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1318,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1552,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/base-llm/open-source/executability.xlsx
+++ b/base-llm/open-source/executability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\open-source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7997935-DBBC-40EC-AB9D-A147BB21B73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3366787A-CE9F-4CA3-88F0-A725D08D7C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="60">
   <si>
     <t>AirlinesCustomerSatisfaction</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Llama-2-13b-8bits</t>
   </si>
   <si>
-    <t>Incorrect serialization (number of elements, shortnames, and dots), and uncommented text</t>
-  </si>
-  <si>
     <t>Llama-3-8b-4bits</t>
   </si>
   <si>
@@ -109,42 +106,18 @@
     <t>Incorrect serialization (number of elements)</t>
   </si>
   <si>
-    <t>Incorrect serialization (dots, prefix used but not defined)</t>
-  </si>
-  <si>
     <t>Incorrect serialization (shortnames)</t>
   </si>
   <si>
-    <t>Incorrect serialization (dots, prefix and owl:Ontology declarations), and uncommented text</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (blank nodes declarations)</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Incorrect serialization (missing end dots in the prefix declarations)</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (prefix not defined)</t>
-  </si>
-  <si>
     <t>Incorrect serialization (restrictions)</t>
   </si>
   <si>
     <t>Uncommented text, and wrong URIs</t>
   </si>
   <si>
-    <t>Incorrect serialization (number of elements, loop at the end), and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements in the triples), and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, shortnames, dots), uncommented text,  and wrong URIs</t>
-  </si>
-  <si>
     <t>Incorrect serialization (number of elements, shortnames, dots), uncommented text, and wrong URIs</t>
   </si>
   <si>
@@ -163,67 +136,88 @@
     <t>Mixtral-8-7b-4bits</t>
   </si>
   <si>
-    <t>Incorrect format and serialization (number of elements, shortnames, and dots), and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, shortnames, and dots), uncommented text, and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (loop at the end), uncommented text, and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (loop, shortnames, IDs, and numeric values), and wrong URIs</t>
-  </si>
-  <si>
     <t>Incorrect serialization (number of elements, ending loop), uncommented text, and wrong URIs</t>
   </si>
   <si>
-    <t>Incorrect serialization (number of elements), uncommented text, and  wrong URIs</t>
-  </si>
-  <si>
-    <t>Wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (missing end dots in the prefix declarations), and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, dots, prefix declaration), and wrong URIs</t>
-  </si>
-  <si>
     <t>Incorrect serialization (dots, and shortnames), and wrong URIs</t>
   </si>
   <si>
-    <t>Incorrect serialization (prefix not defined), and uncommented text</t>
-  </si>
-  <si>
     <t>Incorrect format, uncommented text, and wrong URIs</t>
   </si>
   <si>
-    <t>Incorrect serialization (prefix not defined), and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (shortnames, and number of elements in the triples), and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (missing end dots, prefix not defined, sintaxis error), and wrong URIs</t>
-  </si>
-  <si>
     <t>Incorrect serialization (shortnames), and wrong URIs</t>
   </si>
   <si>
-    <t>Incorrect serialization (number of elements in the triples, IDs with spaces), and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, and dots)</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, dots, shortnames, prefix used but not declarated), and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (prefix declarations, number of elements, use of shortnames), and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, shortnames, dots, prefix declarations)</t>
+    <t>Incorrect serialization (number of elements), uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (shortnames, and number of elements), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, ending loop), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (ending loop), uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (dots), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (ending loop, shortnames, IDs, and format numeric values), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (prefixes, number of elements, shortnames), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, dots, prefixes)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, dots, prefixes), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (dots, prefixes)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (dots, prefixes), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (blank node declarations)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (prefixes)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (prefixes), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (prefixes), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (dots, prefixes, restrictions), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, IDs), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, dots, shortnames, prefixes), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect format, incorrect serialization (number of elements, shortnames, dots), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, dots)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, dots), and uncommented text</t>
+  </si>
+  <si>
+    <t>Valid, Wrong URIs</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
@@ -580,12 +574,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -689,7 +683,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -715,7 +709,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -741,7 +735,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -793,7 +787,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -845,7 +839,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -871,7 +865,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -943,7 +937,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -969,22 +963,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -992,22 +986,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1018,27 +1012,27 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1058,48 +1052,48 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1107,19 +1101,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -1127,25 +1121,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1153,45 +1147,45 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" t="s">
         <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1240,12 +1234,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1349,7 +1343,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1375,7 +1369,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1401,7 +1395,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1453,7 +1447,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1505,7 +1499,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1531,7 +1525,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>8</v>
